--- a/Rúbrica_Ficha de evaluación de Generation-Desarrollador Java-México_vF.xlsx
+++ b/Rúbrica_Ficha de evaluación de Generation-Desarrollador Java-México_vF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niver\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niver\Desktop\bootcamp-cohorte-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB295208-E80A-4CCB-A980-E1C623682389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C1912F-EBC9-4BA7-8D40-57896CD26E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,17 +172,28 @@
     <t>Hace las cosas con precisión y cuidado desde la primera vez.</t>
   </si>
   <si>
-    <t>COMENTARIOS</t>
+    <t>x</t>
   </si>
   <si>
-    <t>x</t>
+    <r>
+      <t xml:space="preserve">COMENTARIOS: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Las últimas actividades de mentoría y las sesiones de simulación de entrevista me han ayudado mucho a recuperar seguridad para saber como vender mis habilidades.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -225,6 +236,19 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -571,15 +595,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,8 +924,8 @@
   </sheetPr>
   <dimension ref="A1:U990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -981,7 +1005,7 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
@@ -1008,7 +1032,7 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
@@ -1035,7 +1059,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
@@ -1062,7 +1086,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
@@ -1114,7 +1138,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -1141,7 +1165,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
@@ -1168,7 +1192,7 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
@@ -1194,7 +1218,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
@@ -1247,7 +1271,7 @@
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
@@ -1274,7 +1298,7 @@
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
@@ -1301,7 +1325,7 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
@@ -1329,7 +1353,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="4"/>
@@ -1380,7 +1404,7 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
@@ -1408,7 +1432,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="4"/>
@@ -1435,7 +1459,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="4"/>
@@ -1461,7 +1485,7 @@
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="33"/>
@@ -1482,14 +1506,14 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1575,7 +1599,7 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
@@ -1603,7 +1627,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="4"/>
@@ -1630,7 +1654,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="4"/>
@@ -1656,7 +1680,7 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
@@ -1708,7 +1732,7 @@
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
@@ -1735,7 +1759,7 @@
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
@@ -1762,7 +1786,7 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
@@ -1789,7 +1813,7 @@
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="16"/>
@@ -1841,7 +1865,7 @@
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
@@ -1868,7 +1892,7 @@
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
@@ -1895,7 +1919,7 @@
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
@@ -1922,7 +1946,7 @@
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
@@ -1974,7 +1998,7 @@
       </c>
       <c r="C40" s="35"/>
       <c r="D40" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
@@ -2001,7 +2025,7 @@
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
@@ -2028,7 +2052,7 @@
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
@@ -2055,7 +2079,7 @@
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
@@ -2076,14 +2100,14 @@
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="49" t="s">
-        <v>50</v>
+      <c r="A44" s="53" t="s">
+        <v>51</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -23866,6 +23890,6 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>